--- a/examples/Aspiration/data/excel_source/scenarios.xlsx
+++ b/examples/Aspiration/data/excel_source/scenarios.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20380"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yus\Dropbox\ABM4ALL\Melodie\examples\Aspiration\data\excel_source\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12957\Documents\Developing\Python\melodie\examples\Aspiration\data\excel_source\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D88DECE-A146-458F-A186-F698B2EA2432}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30915" windowHeight="7830"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30915" windowHeight="7830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Exo_ScenarioPara" sheetId="1" r:id="rId1"/>
@@ -72,11 +73,17 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -103,7 +110,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -380,14 +387,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
@@ -407,7 +414,7 @@
     <col min="16" max="16" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -457,7 +464,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16">
       <c r="A2">
         <v>0</v>
       </c>
@@ -507,7 +514,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16">
       <c r="A3">
         <v>1</v>
       </c>
@@ -558,6 +565,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/examples/Aspiration/data/excel_source/scenarios.xlsx
+++ b/examples/Aspiration/data/excel_source/scenarios.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20380"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12957\Documents\Developing\Python\melodie\examples\Aspiration\data\excel_source\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yus\Dropbox\ABM4ALL\Melodie\examples\Aspiration\data\excel_source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D88DECE-A146-458F-A186-F698B2EA2432}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30915" windowHeight="7830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30915" windowHeight="7830"/>
   </bookViews>
   <sheets>
     <sheet name="Exo_ScenarioPara" sheetId="1" r:id="rId1"/>
@@ -73,17 +72,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -110,7 +103,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -387,14 +380,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
@@ -414,7 +407,7 @@
     <col min="16" max="16" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -464,7 +457,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -514,7 +507,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -565,7 +558,6 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/examples/Aspiration/data/excel_source/scenarios.xlsx
+++ b/examples/Aspiration/data/excel_source/scenarios.xlsx
@@ -384,7 +384,7 @@
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -462,7 +462,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>100</v>
@@ -512,7 +512,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>100</v>

--- a/examples/Aspiration/data/excel_source/scenarios.xlsx
+++ b/examples/Aspiration/data/excel_source/scenarios.xlsx
@@ -384,7 +384,7 @@
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -394,7 +394,7 @@
     <col min="3" max="3" width="14.140625" customWidth="1"/>
     <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.5703125" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.42578125" customWidth="1"/>
     <col min="9" max="9" width="29.85546875" bestFit="1" customWidth="1"/>

--- a/examples/Aspiration/data/excel_source/scenarios.xlsx
+++ b/examples/Aspiration/data/excel_source/scenarios.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30915" windowHeight="7830"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30920" windowHeight="7830"/>
   </bookViews>
   <sheets>
     <sheet name="Exo_ScenarioPara" sheetId="1" r:id="rId1"/>
@@ -48,9 +48,6 @@
     <t>agent_num</t>
   </si>
   <si>
-    <t>imitation_success_rate</t>
-  </si>
-  <si>
     <t>imitation_share</t>
   </si>
   <si>
@@ -67,6 +64,9 @@
   </si>
   <si>
     <t>id</t>
+  </si>
+  <si>
+    <t>imitation_fail_rate</t>
   </si>
 </sst>
 </file>
@@ -383,33 +383,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" customWidth="1"/>
-    <col min="9" max="9" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.1796875" customWidth="1"/>
+    <col min="4" max="4" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.54296875" customWidth="1"/>
+    <col min="6" max="6" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.453125" customWidth="1"/>
+    <col min="9" max="9" width="29.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.26953125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
         <v>6</v>
@@ -421,7 +421,7 @@
         <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -430,13 +430,13 @@
         <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
         <v>11</v>
-      </c>
-      <c r="J1" t="s">
-        <v>12</v>
       </c>
       <c r="K1" t="s">
         <v>5</v>
@@ -451,13 +451,13 @@
         <v>2</v>
       </c>
       <c r="O1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
@@ -504,10 +504,10 @@
         <v>0.1</v>
       </c>
       <c r="P2">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -554,7 +554,7 @@
         <v>0.1</v>
       </c>
       <c r="P3">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>
